--- a/biology/Zoologie/Iridomyrmex/Iridomyrmex.xlsx
+++ b/biology/Zoologie/Iridomyrmex/Iridomyrmex.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Iridomyrmex est un genre de fourmis (famille des Formicidae). Ces espèces se rencontre depuis l'Inde et la Chine jusqu'à l'Australie et la Nouvelle-Calédonie.
 </t>
@@ -511,9 +523,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon ITIS      (18 mars 2021)[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon ITIS      (18 mars 2021) :
 Iridomyrmex agilis Forel, 1907
 Iridomyrmex albitarsus Wheeler, 1927
 Iridomyrmex anceps (Roger, 1863)
@@ -572,8 +586,43 @@
 Iridomyrmex viridiaeneus Viehmeyer, 1914
 Iridomyrmex viridigaster Clark, 1941
 Iridomyrmex wingi Donisthorpe, 1949
-Espèces fossiles
-Selon Paleobiology Database en 2022, les espèces fossiles référencées sont au nombre de cinq[2].
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Iridomyrmex</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Iridomyrmex</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Liste d'espèces</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Espèces fossiles</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Paleobiology Database en 2022, les espèces fossiles référencées sont au nombre de cinq.
 †Iridomyrmex breviantennis Théobald 1937
 †Iridomyrmex florissantius Carpenter 1930
 †Iridomyrmex mapesi Wilson 1985
